--- a/initial_coeff_SCRON_open.xlsx
+++ b/initial_coeff_SCRON_open.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkar\Downloads\Model4Code\results_save2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkar\Downloads\emarketing-master\emarketing-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,28 +51,232 @@
     <t>age</t>
   </si>
   <si>
-    <t>incomeK</t>
-  </si>
-  <si>
-    <t>incomeL</t>
-  </si>
-  <si>
-    <t>incomeM</t>
-  </si>
-  <si>
-    <t>incomeN</t>
-  </si>
-  <si>
-    <t>incomeO</t>
-  </si>
-  <si>
-    <t>incomeP</t>
-  </si>
-  <si>
-    <t>incomeQ</t>
-  </si>
-  <si>
-    <t>incomeR</t>
+    <t>daysSinceOpened1</t>
+  </si>
+  <si>
+    <t>daysSinceOpenedSq</t>
+  </si>
+  <si>
+    <t>knot1_part</t>
+  </si>
+  <si>
+    <t>knot2_part</t>
+  </si>
+  <si>
+    <t>knot3_part</t>
+  </si>
+  <si>
+    <t>knot4_part</t>
+  </si>
+  <si>
+    <t>knot5_part</t>
+  </si>
+  <si>
+    <t>knot6_part</t>
+  </si>
+  <si>
+    <t>daysSincePurchased1</t>
+  </si>
+  <si>
+    <t>daysSincePurchasedSq</t>
+  </si>
+  <si>
+    <t>knot1_part_purchase</t>
+  </si>
+  <si>
+    <t>knot2_part_purchase</t>
+  </si>
+  <si>
+    <t>knot3_part_purchase</t>
+  </si>
+  <si>
+    <t>knot4_part_purchase</t>
+  </si>
+  <si>
+    <t>knot5_part_purchase</t>
+  </si>
+  <si>
+    <t>knot6_part_purchase</t>
+  </si>
+  <si>
+    <t>facID3:type_high</t>
+  </si>
+  <si>
+    <t>facID4:type_high</t>
+  </si>
+  <si>
+    <t>facID5:type_high</t>
+  </si>
+  <si>
+    <t>facID8:type_high</t>
+  </si>
+  <si>
+    <t>facID9:type_high</t>
+  </si>
+  <si>
+    <t>facID10:type_high</t>
+  </si>
+  <si>
+    <t>facID11:type_high</t>
+  </si>
+  <si>
+    <t>facID12:type_high</t>
+  </si>
+  <si>
+    <t>facID14:type_high</t>
+  </si>
+  <si>
+    <t>facID15:type_high</t>
+  </si>
+  <si>
+    <t>facID23:type_high</t>
+  </si>
+  <si>
+    <t>facID25:type_high</t>
+  </si>
+  <si>
+    <t>facID26:type_high</t>
+  </si>
+  <si>
+    <t>facID28:type_high</t>
+  </si>
+  <si>
+    <t>facID31:type_high</t>
+  </si>
+  <si>
+    <t>facID34:type_high</t>
+  </si>
+  <si>
+    <t>facID35:type_high</t>
+  </si>
+  <si>
+    <t>facID36:type_high</t>
+  </si>
+  <si>
+    <t>facID43:type_high</t>
+  </si>
+  <si>
+    <t>facID44:type_high</t>
+  </si>
+  <si>
+    <t>facID45:type_high</t>
+  </si>
+  <si>
+    <t>facID46:type_high</t>
+  </si>
+  <si>
+    <t>facID50:type_high</t>
+  </si>
+  <si>
+    <t>facID51:type_high</t>
+  </si>
+  <si>
+    <t>facID52:type_high</t>
+  </si>
+  <si>
+    <t>facID3:type_mid</t>
+  </si>
+  <si>
+    <t>facID4:type_mid</t>
+  </si>
+  <si>
+    <t>facID5:type_mid</t>
+  </si>
+  <si>
+    <t>facID8:type_mid</t>
+  </si>
+  <si>
+    <t>facID9:type_mid</t>
+  </si>
+  <si>
+    <t>facID10:type_mid</t>
+  </si>
+  <si>
+    <t>facID11:type_mid</t>
+  </si>
+  <si>
+    <t>facID12:type_mid</t>
+  </si>
+  <si>
+    <t>facID14:type_mid</t>
+  </si>
+  <si>
+    <t>facID15:type_mid</t>
+  </si>
+  <si>
+    <t>facID23:type_mid</t>
+  </si>
+  <si>
+    <t>facID25:type_mid</t>
+  </si>
+  <si>
+    <t>facID26:type_mid</t>
+  </si>
+  <si>
+    <t>facID28:type_mid</t>
+  </si>
+  <si>
+    <t>facID31:type_mid</t>
+  </si>
+  <si>
+    <t>facID34:type_mid</t>
+  </si>
+  <si>
+    <t>facID35:type_mid</t>
+  </si>
+  <si>
+    <t>facID36:type_mid</t>
+  </si>
+  <si>
+    <t>facID43:type_mid</t>
+  </si>
+  <si>
+    <t>facID44:type_mid</t>
+  </si>
+  <si>
+    <t>facID45:type_mid</t>
+  </si>
+  <si>
+    <t>facID46:type_mid</t>
+  </si>
+  <si>
+    <t>facID50:type_mid</t>
+  </si>
+  <si>
+    <t>facID51:type_mid</t>
+  </si>
+  <si>
+    <t>facID52:type_mid</t>
+  </si>
+  <si>
+    <t>income2</t>
+  </si>
+  <si>
+    <t>income3</t>
+  </si>
+  <si>
+    <t>income4</t>
+  </si>
+  <si>
+    <t>income5</t>
+  </si>
+  <si>
+    <t>income6</t>
+  </si>
+  <si>
+    <t>income7</t>
+  </si>
+  <si>
+    <t>income8</t>
+  </si>
+  <si>
+    <t>income9</t>
+  </si>
+  <si>
+    <t>facID2</t>
+  </si>
+  <si>
+    <t>facID3</t>
   </si>
   <si>
     <t>facID4</t>
@@ -81,6 +285,12 @@
     <t>facID5</t>
   </si>
   <si>
+    <t>facID6</t>
+  </si>
+  <si>
+    <t>facID7</t>
+  </si>
+  <si>
     <t>facID8</t>
   </si>
   <si>
@@ -96,253 +306,43 @@
     <t>facID12</t>
   </si>
   <si>
+    <t>facID13</t>
+  </si>
+  <si>
     <t>facID14</t>
   </si>
   <si>
     <t>facID15</t>
   </si>
   <si>
+    <t>facID16</t>
+  </si>
+  <si>
+    <t>facID17</t>
+  </si>
+  <si>
+    <t>facID18</t>
+  </si>
+  <si>
+    <t>facID19</t>
+  </si>
+  <si>
+    <t>facID20</t>
+  </si>
+  <si>
+    <t>facID21</t>
+  </si>
+  <si>
+    <t>facID22</t>
+  </si>
+  <si>
     <t>facID23</t>
   </si>
   <si>
+    <t>facID24</t>
+  </si>
+  <si>
     <t>facID25</t>
-  </si>
-  <si>
-    <t>facID26</t>
-  </si>
-  <si>
-    <t>facID28</t>
-  </si>
-  <si>
-    <t>facID31</t>
-  </si>
-  <si>
-    <t>facID34</t>
-  </si>
-  <si>
-    <t>facID35</t>
-  </si>
-  <si>
-    <t>facID36</t>
-  </si>
-  <si>
-    <t>facID43</t>
-  </si>
-  <si>
-    <t>facID44</t>
-  </si>
-  <si>
-    <t>facID45</t>
-  </si>
-  <si>
-    <t>facID46</t>
-  </si>
-  <si>
-    <t>facID50</t>
-  </si>
-  <si>
-    <t>facID51</t>
-  </si>
-  <si>
-    <t>facID52</t>
-  </si>
-  <si>
-    <t>daysSinceOpened1</t>
-  </si>
-  <si>
-    <t>daysSinceOpenedSq</t>
-  </si>
-  <si>
-    <t>knot1_part</t>
-  </si>
-  <si>
-    <t>knot2_part</t>
-  </si>
-  <si>
-    <t>knot3_part</t>
-  </si>
-  <si>
-    <t>knot4_part</t>
-  </si>
-  <si>
-    <t>knot5_part</t>
-  </si>
-  <si>
-    <t>knot6_part</t>
-  </si>
-  <si>
-    <t>daysSincePurchased1</t>
-  </si>
-  <si>
-    <t>daysSincePurchasedSq</t>
-  </si>
-  <si>
-    <t>knot1_part_purchase</t>
-  </si>
-  <si>
-    <t>knot2_part_purchase</t>
-  </si>
-  <si>
-    <t>knot3_part_purchase</t>
-  </si>
-  <si>
-    <t>knot4_part_purchase</t>
-  </si>
-  <si>
-    <t>knot5_part_purchase</t>
-  </si>
-  <si>
-    <t>knot6_part_purchase</t>
-  </si>
-  <si>
-    <t>facID3:type_high</t>
-  </si>
-  <si>
-    <t>facID4:type_high</t>
-  </si>
-  <si>
-    <t>facID5:type_high</t>
-  </si>
-  <si>
-    <t>facID8:type_high</t>
-  </si>
-  <si>
-    <t>facID9:type_high</t>
-  </si>
-  <si>
-    <t>facID10:type_high</t>
-  </si>
-  <si>
-    <t>facID11:type_high</t>
-  </si>
-  <si>
-    <t>facID12:type_high</t>
-  </si>
-  <si>
-    <t>facID14:type_high</t>
-  </si>
-  <si>
-    <t>facID15:type_high</t>
-  </si>
-  <si>
-    <t>facID23:type_high</t>
-  </si>
-  <si>
-    <t>facID25:type_high</t>
-  </si>
-  <si>
-    <t>facID26:type_high</t>
-  </si>
-  <si>
-    <t>facID28:type_high</t>
-  </si>
-  <si>
-    <t>facID31:type_high</t>
-  </si>
-  <si>
-    <t>facID34:type_high</t>
-  </si>
-  <si>
-    <t>facID35:type_high</t>
-  </si>
-  <si>
-    <t>facID36:type_high</t>
-  </si>
-  <si>
-    <t>facID43:type_high</t>
-  </si>
-  <si>
-    <t>facID44:type_high</t>
-  </si>
-  <si>
-    <t>facID45:type_high</t>
-  </si>
-  <si>
-    <t>facID46:type_high</t>
-  </si>
-  <si>
-    <t>facID50:type_high</t>
-  </si>
-  <si>
-    <t>facID51:type_high</t>
-  </si>
-  <si>
-    <t>facID52:type_high</t>
-  </si>
-  <si>
-    <t>facID3:type_mid</t>
-  </si>
-  <si>
-    <t>facID4:type_mid</t>
-  </si>
-  <si>
-    <t>facID5:type_mid</t>
-  </si>
-  <si>
-    <t>facID8:type_mid</t>
-  </si>
-  <si>
-    <t>facID9:type_mid</t>
-  </si>
-  <si>
-    <t>facID10:type_mid</t>
-  </si>
-  <si>
-    <t>facID11:type_mid</t>
-  </si>
-  <si>
-    <t>facID12:type_mid</t>
-  </si>
-  <si>
-    <t>facID14:type_mid</t>
-  </si>
-  <si>
-    <t>facID15:type_mid</t>
-  </si>
-  <si>
-    <t>facID23:type_mid</t>
-  </si>
-  <si>
-    <t>facID25:type_mid</t>
-  </si>
-  <si>
-    <t>facID26:type_mid</t>
-  </si>
-  <si>
-    <t>facID28:type_mid</t>
-  </si>
-  <si>
-    <t>facID31:type_mid</t>
-  </si>
-  <si>
-    <t>facID34:type_mid</t>
-  </si>
-  <si>
-    <t>facID35:type_mid</t>
-  </si>
-  <si>
-    <t>facID36:type_mid</t>
-  </si>
-  <si>
-    <t>facID43:type_mid</t>
-  </si>
-  <si>
-    <t>facID44:type_mid</t>
-  </si>
-  <si>
-    <t>facID45:type_mid</t>
-  </si>
-  <si>
-    <t>facID46:type_mid</t>
-  </si>
-  <si>
-    <t>facID50:type_mid</t>
-  </si>
-  <si>
-    <t>facID51:type_mid</t>
-  </si>
-  <si>
-    <t>facID52:type_mid</t>
   </si>
 </sst>
 </file>
@@ -662,16 +662,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:E56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -705,7 +705,7 @@
         <v>2.210685324047903E-113</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -722,7 +722,7 @@
         <v>9.6007632232418746E-31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -739,7 +739,7 @@
         <v>4.2459071332796889E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -756,7 +756,7 @@
         <v>2.2835603749699349E-46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -773,9 +773,9 @@
         <v>5.6999099595832762E-216</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B7">
         <v>9.5653959722716492E-4</v>
@@ -790,9 +790,9 @@
         <v>0.92981514665498788</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B8">
         <v>1.787601155808281E-2</v>
@@ -807,9 +807,9 @@
         <v>8.6742988353580769E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B9">
         <v>2.8188183701488755E-2</v>
@@ -824,9 +824,9 @@
         <v>3.5801223245435893E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B10">
         <v>3.5151389597526353E-2</v>
@@ -841,9 +841,9 @@
         <v>1.0162102542603188E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B11">
         <v>5.8417568082866751E-2</v>
@@ -858,9 +858,9 @@
         <v>9.3117874508686108E-10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B12">
         <v>7.7194956540750176E-2</v>
@@ -875,9 +875,9 @@
         <v>5.559313918818185E-14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B13">
         <v>8.3444525826571705E-2</v>
@@ -892,9 +892,9 @@
         <v>4.216681246829482E-11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B14">
         <v>0.10461889547930403</v>
@@ -909,9 +909,9 @@
         <v>1.1756461375376998E-20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B15">
         <v>0.26187203111256008</v>
@@ -926,9 +926,9 @@
         <v>2.5964979928153113E-12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B16">
         <v>-6.0658843958873652</v>
@@ -943,9 +943,9 @@
         <v>1.2370651042426468E-158</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B17">
         <v>0.19783406654182087</v>
@@ -960,9 +960,9 @@
         <v>1.0796685420178997E-7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B18">
         <v>6.4687462160745834E-2</v>
@@ -977,9 +977,9 @@
         <v>0.10118938899009783</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B19">
         <v>-0.13433486720410542</v>
@@ -994,9 +994,9 @@
         <v>3.0619546853822828E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B20">
         <v>-0.23156229685479224</v>
@@ -1011,9 +1011,9 @@
         <v>8.8817127350398579E-10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B21">
         <v>-0.24443649301512746</v>
@@ -1028,9 +1028,9 @@
         <v>7.6839780683555815E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B22">
         <v>-0.14600287433062908</v>
@@ -1045,9 +1045,9 @@
         <v>1.0757511227840761E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B23">
         <v>0.20361766415502089</v>
@@ -1062,9 +1062,9 @@
         <v>9.7663265870091159E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B24">
         <v>-1.1319804099171838E-2</v>
@@ -1079,9 +1079,9 @@
         <v>0.76295507223337078</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B25">
         <v>-0.28897217284359894</v>
@@ -1096,9 +1096,9 @@
         <v>1.0953972526467387E-14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B26">
         <v>0.42459491713272901</v>
@@ -1113,9 +1113,9 @@
         <v>3.7565867644430572E-31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B27">
         <v>-0.19369009732469289</v>
@@ -1130,9 +1130,9 @@
         <v>2.4825446231261731E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B28">
         <v>-5.9981798872796981</v>
@@ -1147,9 +1147,9 @@
         <v>4.9638214209170916E-153</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="B29">
         <v>0.45036706374569968</v>
@@ -1164,9 +1164,9 @@
         <v>9.9808776028431065E-34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B30">
         <v>0.33840087680325165</v>
@@ -1181,9 +1181,9 @@
         <v>2.4135577547024651E-16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="B31">
         <v>-9.8930378304882161E-2</v>
@@ -1198,9 +1198,9 @@
         <v>9.3424180450241284E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="B32">
         <v>-6.0765284502967063</v>
@@ -1215,9 +1215,9 @@
         <v>3.8377621711239637E-159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="B33">
         <v>0.40626793897239555</v>
@@ -1232,9 +1232,9 @@
         <v>3.6242969192477945E-21</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="B34">
         <v>0.62452268122715904</v>
@@ -1249,9 +1249,9 @@
         <v>2.6284286762661111E-65</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="B35">
         <v>0.39287000850482379</v>
@@ -1266,9 +1266,9 @@
         <v>1.2277863252913101E-26</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="B36">
         <v>-5.9290423461534338</v>
@@ -1283,9 +1283,9 @@
         <v>2.3156382571907249E-149</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="B37">
         <v>-0.12325576387110444</v>
@@ -1300,9 +1300,9 @@
         <v>2.3974217244603423E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="B38">
         <v>0.24297569689153231</v>
@@ -1317,9 +1317,9 @@
         <v>4.1662957122088778E-11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>-14.630760042001302</v>
@@ -1334,9 +1334,9 @@
         <v>4.6902543667654406E-113</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>10.622825925832709</v>
@@ -1351,9 +1351,9 @@
         <v>3.7549691144851361E-112</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>-12.388472977552388</v>
@@ -1368,9 +1368,9 @@
         <v>3.2325341892321894E-146</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>2.8853173493368738</v>
@@ -1385,9 +1385,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>-1.7199786286617103</v>
@@ -1402,9 +1402,9 @@
         <v>1.17826142458953E-60</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>1.2999024657744394</v>
@@ -1419,9 +1419,9 @@
         <v>5.1187399423900537E-14</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>-1.5662366913334602</v>
@@ -1436,9 +1436,9 @@
         <v>7.8939203240092135E-13</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>1.167435975233261</v>
@@ -1453,9 +1453,9 @@
         <v>8.5451822694742926E-10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>-0.45457900790529709</v>
@@ -1470,9 +1470,9 @@
         <v>5.0655571810753036E-6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>-5.8936123094010175E-2</v>
@@ -1487,9 +1487,9 @@
         <v>0.60506771104517854</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0.70968109786430478</v>
@@ -1504,9 +1504,9 @@
         <v>3.1447175677932636E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>-0.8100169410158764</v>
@@ -1521,9 +1521,9 @@
         <v>5.0809956917123877E-24</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0.34296830392645383</v>
@@ -1538,9 +1538,9 @@
         <v>7.1569526843730485E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>-0.30094840851359433</v>
@@ -1555,9 +1555,9 @@
         <v>1.964898850915033E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0.2112523076270342</v>
@@ -1572,9 +1572,9 @@
         <v>1.5283537488439325E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>-0.12971510208430459</v>
@@ -1589,9 +1589,9 @@
         <v>1.5445689196757458E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0.21300315286903818</v>
@@ -1606,9 +1606,9 @@
         <v>2.5971273451438112E-12</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0.38638320049156683</v>
@@ -1623,9 +1623,9 @@
         <v>5.9746325668029308E-42</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0.28088961333709189</v>
@@ -1640,9 +1640,9 @@
         <v>4.2137528909975008E-23</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0.22275084173207377</v>
@@ -1657,9 +1657,9 @@
         <v>2.8506629648528038E-14</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0.33043166806013774</v>
@@ -1674,9 +1674,9 @@
         <v>3.6859947842233165E-24</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <v>0.10842129001400905</v>
@@ -1691,9 +1691,9 @@
         <v>2.171861014911954E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B61">
         <v>0.11374140133488957</v>
@@ -1708,9 +1708,9 @@
         <v>1.6227114748153674E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B62">
         <v>0.25821325751840757</v>
@@ -1725,9 +1725,9 @@
         <v>2.1333723157782792E-10</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B63">
         <v>0.15471661931298206</v>
@@ -1742,9 +1742,9 @@
         <v>2.3953416479177823E-7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B64">
         <v>0.3903011983564641</v>
@@ -1759,9 +1759,9 @@
         <v>1.467463646766574E-10</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B65">
         <v>0.13638857529422374</v>
@@ -1776,9 +1776,9 @@
         <v>4.1434830277470455E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B66">
         <v>9.1245263660317613E-2</v>
@@ -1793,9 +1793,9 @@
         <v>2.0440274235662397E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B67">
         <v>0.38638320049156683</v>
@@ -1810,9 +1810,9 @@
         <v>5.9746325668029308E-42</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B68">
         <v>0.16384115628161289</v>
@@ -1827,9 +1827,9 @@
         <v>3.9690208420665328E-8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B69">
         <v>0.11501352370413978</v>
@@ -1844,9 +1844,9 @@
         <v>5.4923745966229008E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B70">
         <v>0.10596124070598727</v>
@@ -1861,9 +1861,9 @@
         <v>2.8334791459072985E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B71">
         <v>0.45162680308090181</v>
@@ -1878,9 +1878,9 @@
         <v>4.2298283322855292E-36</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B72">
         <v>5.6423403183569087E-2</v>
@@ -1895,9 +1895,9 @@
         <v>6.336008981694978E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B73">
         <v>3.928477674549887E-3</v>
@@ -1912,9 +1912,9 @@
         <v>0.89179732945992796</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B74">
         <v>5.0474940783564563E-2</v>
@@ -1929,9 +1929,9 @@
         <v>0.18583350716935262</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B75">
         <v>3.653161180074365E-2</v>
@@ -1946,9 +1946,9 @@
         <v>0.19721601075589199</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B76">
         <v>0.33849295487895076</v>
@@ -1963,9 +1963,9 @@
         <v>4.5734835943682596E-32</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B77">
         <v>4.8409679286593219E-2</v>
@@ -1980,9 +1980,9 @@
         <v>0.24990427913924337</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B78">
         <v>4.2440876922404572E-2</v>
@@ -1997,9 +1997,9 @@
         <v>0.21647132368294328</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B79">
         <v>2.5299938499055315E-2</v>
@@ -2014,9 +2014,9 @@
         <v>0.37849373628173288</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B80">
         <v>5.533085463128852E-2</v>
@@ -2031,9 +2031,9 @@
         <v>9.291211874131057E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B81">
         <v>-3.9721567140648031E-3</v>
@@ -2048,9 +2048,9 @@
         <v>0.90101185360548708</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B82">
         <v>7.0123328744189403E-2</v>
@@ -2065,9 +2065,9 @@
         <v>2.068260058938801E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B83">
         <v>3.8013040131385699E-2</v>
@@ -2082,9 +2082,9 @@
         <v>0.22871144667144899</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B84">
         <v>0.10469389405065575</v>
@@ -2099,9 +2099,9 @@
         <v>2.8783041203908791E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B85">
         <v>5.6307538199159915E-2</v>
@@ -2116,9 +2116,9 @@
         <v>7.3586822148771824E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B86">
         <v>2.401377283844847E-2</v>
@@ -2133,9 +2133,9 @@
         <v>0.4594539194657285</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="B87">
         <v>6.5847305958648572E-2</v>
@@ -2150,9 +2150,9 @@
         <v>0.13583016559951308</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B88">
         <v>5.7750768964457612E-2</v>
@@ -2167,9 +2167,9 @@
         <v>7.3723140907437132E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B89">
         <v>9.3973311648078928E-2</v>
@@ -2184,9 +2184,9 @@
         <v>0.15738913799844731</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B90">
         <v>6.751087708654864E-2</v>
@@ -2201,9 +2201,9 @@
         <v>3.2630252332911044E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B91">
         <v>3.1366934288048334E-2</v>
@@ -2218,9 +2218,9 @@
         <v>0.32328147755577713</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B92">
         <v>0.13718161341523002</v>
@@ -2235,9 +2235,9 @@
         <v>6.6466409601738192E-6</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B93">
         <v>6.587943849970293E-2</v>
@@ -2252,9 +2252,9 @@
         <v>3.9355629717980248E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B94">
         <v>-3.3623526764710898E-5</v>
@@ -2269,9 +2269,9 @@
         <v>0.9994005253115934</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="B95">
         <v>3.3688138857555075E-2</v>
@@ -2286,9 +2286,9 @@
         <v>0.27849793607608625</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B96">
         <v>0.15207145574925299</v>
@@ -2303,9 +2303,9 @@
         <v>8.051556096325367E-5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B97">
         <v>5.8305671228460424E-3</v>
@@ -2320,9 +2320,9 @@
         <v>0.85726570392069157</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B98">
         <v>-1.0794433424225024E-2</v>
@@ -2337,9 +2337,9 @@
         <v>0.72681280336345422</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B99">
         <v>6.1681647914198369E-2</v>
@@ -2354,9 +2354,9 @@
         <v>0.13258038476897696</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B100">
         <v>-2.6925581873611638E-3</v>
@@ -2371,9 +2371,9 @@
         <v>0.92888786479111052</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B101">
         <v>9.4301903533440215E-2</v>
@@ -2388,9 +2388,9 @@
         <v>2.0794639819982385E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B102">
         <v>8.6814074655957418E-2</v>
@@ -2405,9 +2405,9 @@
         <v>5.3754915654604073E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B103">
         <v>4.8950214464166614E-2</v>
@@ -2422,9 +2422,9 @@
         <v>0.18309796260551936</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B104">
         <v>5.396840999176903E-2</v>
